--- a/TestData/QAS_RebootTestData.xlsx
+++ b/TestData/QAS_RebootTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t xml:space="preserve">BuildingProjectID</t>
   </si>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">8000038260</t>
   </si>
   <si>
-    <t xml:space="preserve">1000193635</t>
+    <t xml:space="preserve">1000102092</t>
   </si>
   <si>
     <t xml:space="preserve">1000102097</t>
@@ -103,10 +103,13 @@
     <t xml:space="preserve">8000038317</t>
   </si>
   <si>
-    <t xml:space="preserve">1000193642</t>
+    <t xml:space="preserve">1000101341</t>
   </si>
   <si>
     <t xml:space="preserve">1000104030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000103780</t>
   </si>
   <si>
     <t xml:space="preserve">qashree15@gmail.com</t>
@@ -232,11 +235,11 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1:S2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.43"/>
@@ -345,19 +348,19 @@
         <v>28</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/TestData/QAS_RebootTestData.xlsx
+++ b/TestData/QAS_RebootTestData.xlsx
@@ -94,7 +94,7 @@
     <t xml:space="preserve">1000102092</t>
   </si>
   <si>
-    <t xml:space="preserve">1000102097</t>
+    <t xml:space="preserve">1000104331</t>
   </si>
   <si>
     <t xml:space="preserve">1000104038</t>
@@ -235,11 +235,11 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.43"/>
@@ -304,7 +304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>19</v>
       </c>
